--- a/biology/Biochimie/Aérobactine/Aérobactine.xlsx
+++ b/biology/Biochimie/Aérobactine/Aérobactine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>A%C3%A9robactine</t>
+          <t>Aérobactine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L'aérobactine est un sidérophore[2] produit par Escherichia coli[3], une entérobactérie pathogène dont elle constitue un facteur de virulence. Cette bactérie l'utilise pour s'approprier le fer ferrique Fe3+ des environnements pauvres en fer, tels que l'appareil urinaire.
-L'aérobactine est synthétisée par oxydation de la lysine sous l'effet de l'aérobactine synthase (en). Le gène qui code cette enzyme se trouve dans l'opéron aérobactine, qui mesure environ 8 kbp et peut contenir 5 gènes ou davantage[4].
-Yersinia pestis possède des gènes codant la synthèse de l'aérobactine mais ils ont été inactivés par mutation décalante (en), de sorte que cette bactérie ne peut plus synthétiser ce sidérophore — elle produit en revanche de la yersiniabactine[5].
+L'aérobactine est un sidérophore produit par Escherichia coli, une entérobactérie pathogène dont elle constitue un facteur de virulence. Cette bactérie l'utilise pour s'approprier le fer ferrique Fe3+ des environnements pauvres en fer, tels que l'appareil urinaire.
+L'aérobactine est synthétisée par oxydation de la lysine sous l'effet de l'aérobactine synthase (en). Le gène qui code cette enzyme se trouve dans l'opéron aérobactine, qui mesure environ 8 kbp et peut contenir 5 gènes ou davantage.
+Yersinia pestis possède des gènes codant la synthèse de l'aérobactine mais ils ont été inactivés par mutation décalante (en), de sorte que cette bactérie ne peut plus synthétiser ce sidérophore — elle produit en revanche de la yersiniabactine.
 </t>
         </is>
       </c>
